--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lamc2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lamc2-Itgb1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4119796666666666</v>
+        <v>0.9142543333333334</v>
       </c>
       <c r="H2">
-        <v>1.235939</v>
+        <v>2.742763</v>
       </c>
       <c r="I2">
-        <v>0.0634382497734383</v>
+        <v>0.1175834869881751</v>
       </c>
       <c r="J2">
-        <v>0.0634382497734383</v>
+        <v>0.1175834869881751</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N2">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O2">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P2">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q2">
-        <v>40.76403837127867</v>
+        <v>153.6951381154184</v>
       </c>
       <c r="R2">
-        <v>366.8763453415079</v>
+        <v>1383.256243038766</v>
       </c>
       <c r="S2">
-        <v>0.0133094062930994</v>
+        <v>0.03508905557077097</v>
       </c>
       <c r="T2">
-        <v>0.0133094062930994</v>
+        <v>0.03508905557077097</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4119796666666666</v>
+        <v>0.9142543333333334</v>
       </c>
       <c r="H3">
-        <v>1.235939</v>
+        <v>2.742763</v>
       </c>
       <c r="I3">
-        <v>0.0634382497734383</v>
+        <v>0.1175834869881751</v>
       </c>
       <c r="J3">
-        <v>0.0634382497734383</v>
+        <v>0.1175834869881751</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P3">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q3">
-        <v>67.15525463454144</v>
+        <v>149.0291573186046</v>
       </c>
       <c r="R3">
-        <v>604.397291710873</v>
+        <v>1341.262415867441</v>
       </c>
       <c r="S3">
-        <v>0.02192610458529558</v>
+        <v>0.03402379832529712</v>
       </c>
       <c r="T3">
-        <v>0.02192610458529559</v>
+        <v>0.03402379832529712</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4119796666666666</v>
+        <v>0.9142543333333334</v>
       </c>
       <c r="H4">
-        <v>1.235939</v>
+        <v>2.742763</v>
       </c>
       <c r="I4">
-        <v>0.0634382497734383</v>
+        <v>0.1175834869881751</v>
       </c>
       <c r="J4">
-        <v>0.0634382497734383</v>
+        <v>0.1175834869881751</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N4">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O4">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P4">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q4">
-        <v>59.4374586798011</v>
+        <v>151.7603041077967</v>
       </c>
       <c r="R4">
-        <v>534.93712811821</v>
+        <v>1365.84273697017</v>
       </c>
       <c r="S4">
-        <v>0.01940625409567256</v>
+        <v>0.03464732723215121</v>
       </c>
       <c r="T4">
-        <v>0.01940625409567257</v>
+        <v>0.03464732723215121</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4119796666666666</v>
+        <v>0.9142543333333334</v>
       </c>
       <c r="H5">
-        <v>1.235939</v>
+        <v>2.742763</v>
       </c>
       <c r="I5">
-        <v>0.0634382497734383</v>
+        <v>0.1175834869881751</v>
       </c>
       <c r="J5">
-        <v>0.0634382497734383</v>
+        <v>0.1175834869881751</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N5">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q5">
-        <v>26.94186622583112</v>
+        <v>60.54807884676546</v>
       </c>
       <c r="R5">
-        <v>242.47679603248</v>
+        <v>544.932709620889</v>
       </c>
       <c r="S5">
-        <v>0.008796484799370749</v>
+        <v>0.01382330585995577</v>
       </c>
       <c r="T5">
-        <v>0.00879648479937075</v>
+        <v>0.01382330585995577</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>14.478153</v>
       </c>
       <c r="I6">
-        <v>0.7431343183377619</v>
+        <v>0.6206849497708361</v>
       </c>
       <c r="J6">
-        <v>0.7431343183377619</v>
+        <v>0.620684949770836</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N6">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O6">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P6">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q6">
-        <v>477.521936306924</v>
+        <v>811.3066003118606</v>
       </c>
       <c r="R6">
-        <v>4297.697426762315</v>
+        <v>7301.759402806745</v>
       </c>
       <c r="S6">
-        <v>0.1559103003066138</v>
+        <v>0.1852237014933935</v>
       </c>
       <c r="T6">
-        <v>0.1559103003066138</v>
+        <v>0.1852237014933935</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>14.478153</v>
       </c>
       <c r="I7">
-        <v>0.7431343183377619</v>
+        <v>0.6206849497708361</v>
       </c>
       <c r="J7">
-        <v>0.7431343183377619</v>
+        <v>0.620684949770836</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P7">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q7">
         <v>786.6764066453522</v>
@@ -883,10 +883,10 @@
         <v>7080.08765980817</v>
       </c>
       <c r="S7">
-        <v>0.2568488387209328</v>
+        <v>0.179600555277578</v>
       </c>
       <c r="T7">
-        <v>0.2568488387209329</v>
+        <v>0.1796005552775779</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>14.478153</v>
       </c>
       <c r="I8">
-        <v>0.7431343183377619</v>
+        <v>0.6206849497708361</v>
       </c>
       <c r="J8">
-        <v>0.7431343183377619</v>
+        <v>0.620684949770836</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N8">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O8">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P8">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q8">
-        <v>696.2678746259633</v>
+        <v>801.09324145003</v>
       </c>
       <c r="R8">
-        <v>6266.41087163367</v>
+        <v>7209.83917305027</v>
       </c>
       <c r="S8">
-        <v>0.2273305688662823</v>
+        <v>0.1828919613937302</v>
       </c>
       <c r="T8">
-        <v>0.2273305688662823</v>
+        <v>0.1828919613937302</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>14.478153</v>
       </c>
       <c r="I9">
-        <v>0.7431343183377619</v>
+        <v>0.6206849497708361</v>
       </c>
       <c r="J9">
-        <v>0.7431343183377619</v>
+        <v>0.620684949770836</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N9">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q9">
-        <v>315.6049459747734</v>
+        <v>319.6135974561177</v>
       </c>
       <c r="R9">
-        <v>2840.44451377296</v>
+        <v>2876.522377105059</v>
       </c>
       <c r="S9">
-        <v>0.1030446104439329</v>
+        <v>0.07296873160613447</v>
       </c>
       <c r="T9">
-        <v>0.1030446104439329</v>
+        <v>0.07296873160613446</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.252874666666667</v>
+        <v>1.986145</v>
       </c>
       <c r="H10">
-        <v>3.758624</v>
+        <v>5.958435</v>
       </c>
       <c r="I10">
-        <v>0.1929225698974139</v>
+        <v>0.2554407961214246</v>
       </c>
       <c r="J10">
-        <v>0.1929225698974139</v>
+        <v>0.2554407961214246</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N10">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O10">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P10">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q10">
-        <v>123.9678438492587</v>
+        <v>333.8904930089633</v>
       </c>
       <c r="R10">
-        <v>1115.710594643328</v>
+        <v>3005.01443708067</v>
       </c>
       <c r="S10">
-        <v>0.04047534216413143</v>
+        <v>0.07622818917632572</v>
       </c>
       <c r="T10">
-        <v>0.04047534216413144</v>
+        <v>0.07622818917632573</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.252874666666667</v>
+        <v>1.986145</v>
       </c>
       <c r="H11">
-        <v>3.758624</v>
+        <v>5.958435</v>
       </c>
       <c r="I11">
-        <v>0.1929225698974139</v>
+        <v>0.2554407961214246</v>
       </c>
       <c r="J11">
-        <v>0.1929225698974139</v>
+        <v>0.2554407961214246</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>489.018707</v>
       </c>
       <c r="O11">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P11">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q11">
-        <v>204.2263831754631</v>
+        <v>323.7540199381717</v>
       </c>
       <c r="R11">
-        <v>1838.037448579168</v>
+        <v>2913.786179443545</v>
       </c>
       <c r="S11">
-        <v>0.06667965241067889</v>
+        <v>0.07391400233063948</v>
       </c>
       <c r="T11">
-        <v>0.0666796524106789</v>
+        <v>0.07391400233063948</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.252874666666667</v>
+        <v>1.986145</v>
       </c>
       <c r="H12">
-        <v>3.758624</v>
+        <v>5.958435</v>
       </c>
       <c r="I12">
-        <v>0.1929225698974139</v>
+        <v>0.2554407961214246</v>
       </c>
       <c r="J12">
-        <v>0.1929225698974139</v>
+        <v>0.2554407961214246</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N12">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O12">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P12">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q12">
-        <v>180.7557320328178</v>
+        <v>329.6872196418499</v>
       </c>
       <c r="R12">
-        <v>1626.80158829536</v>
+        <v>2967.18497677665</v>
       </c>
       <c r="S12">
-        <v>0.0590165148879461</v>
+        <v>0.07526856940847709</v>
       </c>
       <c r="T12">
-        <v>0.05901651488794611</v>
+        <v>0.07526856940847709</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.252874666666667</v>
+        <v>1.986145</v>
       </c>
       <c r="H13">
-        <v>3.758624</v>
+        <v>5.958435</v>
       </c>
       <c r="I13">
-        <v>0.1929225698974139</v>
+        <v>0.2554407961214246</v>
       </c>
       <c r="J13">
-        <v>0.1929225698974139</v>
+        <v>0.2554407961214246</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N13">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q13">
-        <v>81.93312534129781</v>
+        <v>131.5358972624783</v>
       </c>
       <c r="R13">
-        <v>737.3981280716802</v>
+        <v>1183.823075362305</v>
       </c>
       <c r="S13">
-        <v>0.02675106043465745</v>
+        <v>0.03003003520598227</v>
       </c>
       <c r="T13">
-        <v>0.02675106043465745</v>
+        <v>0.03003003520598227</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.003278666666666667</v>
+        <v>0.04891300000000001</v>
       </c>
       <c r="H14">
-        <v>0.009836000000000001</v>
+        <v>0.146739</v>
       </c>
       <c r="I14">
-        <v>0.0005048619913859335</v>
+        <v>0.006290767119564404</v>
       </c>
       <c r="J14">
-        <v>0.0005048619913859335</v>
+        <v>0.006290767119564403</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N14">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O14">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P14">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q14">
-        <v>0.3244133257546667</v>
+        <v>8.222755984355334</v>
       </c>
       <c r="R14">
-        <v>2.919719931792</v>
+        <v>74.00480385919801</v>
       </c>
       <c r="S14">
-        <v>0.000105920535154992</v>
+        <v>0.001877279562761843</v>
       </c>
       <c r="T14">
-        <v>0.000105920535154992</v>
+        <v>0.001877279562761843</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.003278666666666667</v>
+        <v>0.04891300000000001</v>
       </c>
       <c r="H15">
-        <v>0.009836000000000001</v>
+        <v>0.146739</v>
       </c>
       <c r="I15">
-        <v>0.0005048619913859335</v>
+        <v>0.006290767119564404</v>
       </c>
       <c r="J15">
-        <v>0.0005048619913859335</v>
+        <v>0.006290767119564403</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>489.018707</v>
       </c>
       <c r="O15">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P15">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q15">
-        <v>0.5344431113391112</v>
+        <v>7.973124005163668</v>
       </c>
       <c r="R15">
-        <v>4.809988002052001</v>
+        <v>71.75811604647301</v>
       </c>
       <c r="S15">
-        <v>0.0001744949910157115</v>
+        <v>0.001820287842024913</v>
       </c>
       <c r="T15">
-        <v>0.0001744949910157115</v>
+        <v>0.001820287842024912</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.003278666666666667</v>
+        <v>0.04891300000000001</v>
       </c>
       <c r="H16">
-        <v>0.009836000000000001</v>
+        <v>0.146739</v>
       </c>
       <c r="I16">
-        <v>0.0005048619913859335</v>
+        <v>0.006290767119564404</v>
       </c>
       <c r="J16">
-        <v>0.0005048619913859335</v>
+        <v>0.006290767119564403</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N16">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O16">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P16">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q16">
-        <v>0.4730224093377778</v>
+        <v>8.119241532890001</v>
       </c>
       <c r="R16">
-        <v>4.257201684040001</v>
+        <v>73.07317379601001</v>
       </c>
       <c r="S16">
-        <v>0.0001544412105168907</v>
+        <v>0.001853646906684477</v>
       </c>
       <c r="T16">
-        <v>0.0001544412105168907</v>
+        <v>0.001853646906684477</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.003278666666666667</v>
+        <v>0.04891300000000001</v>
       </c>
       <c r="H17">
-        <v>0.009836000000000001</v>
+        <v>0.146739</v>
       </c>
       <c r="I17">
-        <v>0.0005048619913859335</v>
+        <v>0.006290767119564404</v>
       </c>
       <c r="J17">
-        <v>0.0005048619913859335</v>
+        <v>0.006290767119564403</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N17">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q17">
-        <v>0.2144120350577779</v>
+        <v>3.239348256446334</v>
       </c>
       <c r="R17">
-        <v>1.929708315520001</v>
+        <v>29.154134308017</v>
       </c>
       <c r="S17">
-        <v>7.000525469833925E-05</v>
+        <v>0.0007395528080931709</v>
       </c>
       <c r="T17">
-        <v>7.000525469833926E-05</v>
+        <v>0.0007395528080931708</v>
       </c>
     </row>
   </sheetData>
